--- a/biology/Botanique/Amphilophium_crucigerum/Amphilophium_crucigerum.xlsx
+++ b/biology/Botanique/Amphilophium_crucigerum/Amphilophium_crucigerum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphilophium crucigerum est une espèce de plantes à fleurs de la famille des Bignoniaceae. C'est un arbre décrit pour la première fois en 1753 par Carl von Linné (comme Bignonia crucigera).
-Il est connu au Venezuela sous les noms de peine de mono[3], Keskeskankan (Sranan tongo) au Suriname[4], Monkey's-comb, Monkey's-hairbrush (Anglais)[5].
+Il est connu au Venezuela sous les noms de peine de mono, Keskeskankan (Sranan tongo) au Suriname, Monkey's-comb, Monkey's-hairbrush (Anglais).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphilophium crucigerum est une liane à tige, presque glabre à pubescente.
 Les feuilles, sont composées, opposées, principalement 2-(3)-foliolée, avec la foliole terminale souvent remplacée par une vrille trifide vers le haut, et épaissie en un disque.
@@ -524,7 +538,7 @@
 La corolle de 3,6-6,1 x 1-1,8 cm, est densément pubescente, de couleur blanche et à gorge jaune.
 Le fruit est une capsule épaisse, comprimée, de forme elliptique, ellipsoïde à oblongue, ligneuse, mesurant 10-20(-31) x 4,5-6,5(-7,5) x 4 cm, de couleur verte, densément couverte d'aiguillons épineux, longs jusqu'à environ 0,4 cm, à base quelque peu rétrécie, et à apex obtus.
 Les graines sont transversalement oblongues, mesurant 2,5-3 x 6-8 x 0,05 cm, brillantes, à corps fin, de couleur blanche jaunâtre, à ailes hyalines, larges, blanchâtres, à nervures foncées.
-Amphilophium crucigerum se caractérise par des fruits épineux, des vrilles très divisées, des pseudostipules de forme spatulées et des trichomes uniformément simples[6],[4],[3].
+Amphilophium crucigerum se caractérise par des fruits épineux, des vrilles très divisées, des pseudostipules de forme spatulées et des trichomes uniformément simples.
 </t>
         </is>
       </c>
